--- a/data/processed/alkalinity_results.xlsx
+++ b/data/processed/alkalinity_results.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>313.3142426339826</v>
+        <v>313.3142426339828</v>
       </c>
       <c r="C2" t="n">
         <v>0.9958665010084364</v>
       </c>
       <c r="D2" t="n">
-        <v>313.3142426339826</v>
+        <v>313.3142426339828</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1374.722730212387</v>
+        <v>1374.722730212388</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9981623064515616</v>
+        <v>0.9981623064515615</v>
       </c>
       <c r="D3" t="n">
-        <v>1374.722730212387</v>
+        <v>1374.722730212388</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>478.0044639424597</v>
+        <v>478.0044639424594</v>
       </c>
       <c r="C4" t="n">
         <v>0.999314632484714</v>
       </c>
       <c r="D4" t="n">
-        <v>478.0044639424596</v>
+        <v>478.0044639424594</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         <v>0.9955206493844139</v>
       </c>
       <c r="D6" t="n">
-        <v>19.012839511118</v>
+        <v>19.01283951111799</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.79338199198243</v>
+        <v>15.79338199198245</v>
       </c>
       <c r="C7" t="n">
         <v>0.9916708839408863</v>
       </c>
       <c r="D7" t="n">
-        <v>15.79338199198243</v>
+        <v>15.79338199198244</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.994610938171309</v>
+        <v>-3.994610938171307</v>
       </c>
       <c r="C8" t="n">
         <v>0.9487336247217221</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.994610938171309</v>
+        <v>-3.994610938171307</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.261792327651818</v>
+        <v>-1.26179232765182</v>
       </c>
       <c r="C9" t="n">
         <v>0.9905203861132905</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.261792327651818</v>
+        <v>-1.26179232765182</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.939829797996792</v>
+        <v>6.939829797996801</v>
       </c>
       <c r="C10" t="n">
         <v>0.9899296025814285</v>
       </c>
       <c r="D10" t="n">
-        <v>6.939829797996791</v>
+        <v>6.9398297979968</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.15210382640181</v>
+        <v>97.15210382640188</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5700880975147263</v>
+        <v>0.5700880975147262</v>
       </c>
       <c r="D11" t="n">
-        <v>97.15210382640181</v>
+        <v>97.15210382640188</v>
       </c>
     </row>
     <row r="12">
@@ -625,7 +625,7 @@
         <v>177.029953732583</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9751721750947739</v>
+        <v>0.9751721750947741</v>
       </c>
       <c r="D12" t="n">
         <v>177.029953732583</v>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.556362887338364</v>
+        <v>4.556362887338345</v>
       </c>
       <c r="C13" t="n">
         <v>0.9935403820212488</v>
       </c>
       <c r="D13" t="n">
-        <v>4.556362887338364</v>
+        <v>4.556362887338344</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.02011388760114</v>
+        <v>30.02011388760111</v>
       </c>
       <c r="C14" t="n">
         <v>0.9981607451649488</v>
       </c>
       <c r="D14" t="n">
-        <v>30.02011388760114</v>
+        <v>30.02011388760111</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.74812180205444</v>
+        <v>70.7481218020544</v>
       </c>
       <c r="C15" t="n">
         <v>0.9907858938373718</v>
       </c>
       <c r="D15" t="n">
-        <v>70.74812180205444</v>
+        <v>70.74812180205438</v>
       </c>
     </row>
     <row r="16">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>67.57474247748422</v>
+        <v>67.57474247748421</v>
       </c>
       <c r="C18" t="n">
         <v>0.9669407801973182</v>
       </c>
       <c r="D18" t="n">
-        <v>67.57474247748422</v>
+        <v>67.57474247748421</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>134.5809091263613</v>
+        <v>134.5809091263614</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9745233949574049</v>
+        <v>0.9745233949574053</v>
       </c>
       <c r="D19" t="n">
-        <v>134.5809091263613</v>
+        <v>134.5809091263614</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>88.68682091548708</v>
+        <v>88.68682091548712</v>
       </c>
       <c r="C20" t="n">
         <v>0.9980695014880224</v>
       </c>
       <c r="D20" t="n">
-        <v>88.68682091548708</v>
+        <v>88.6868209154871</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>158.7016595018385</v>
+        <v>158.7016595018387</v>
       </c>
       <c r="C21" t="n">
         <v>0.9931882455924198</v>
       </c>
       <c r="D21" t="n">
-        <v>158.7016595018385</v>
+        <v>158.7016595018387</v>
       </c>
     </row>
     <row r="22">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-11.20319216499807</v>
+        <v>-11.20319216499809</v>
       </c>
       <c r="C24" t="n">
         <v>0.9790774776753972</v>
       </c>
       <c r="D24" t="n">
-        <v>-11.20319216499807</v>
+        <v>-11.20319216499809</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.2642042698483</v>
+        <v>106.2642042698484</v>
       </c>
       <c r="C25" t="n">
         <v>0.9936264451720548</v>
       </c>
       <c r="D25" t="n">
-        <v>106.2642042698483</v>
+        <v>106.2642042698484</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>73.4093434589609</v>
+        <v>73.40934345896092</v>
       </c>
       <c r="C26" t="n">
         <v>0.9966761723247112</v>
       </c>
       <c r="D26" t="n">
-        <v>73.40934345896089</v>
+        <v>73.4093434589609</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.27634105950069</v>
+        <v>51.27634105950062</v>
       </c>
       <c r="C27" t="n">
         <v>0.9991790655268351</v>
       </c>
       <c r="D27" t="n">
-        <v>51.27634105950068</v>
+        <v>51.27634105950062</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.13708323054202</v>
+        <v>85.13708323054199</v>
       </c>
       <c r="C28" t="n">
         <v>0.9966452578452247</v>
       </c>
       <c r="D28" t="n">
-        <v>85.137083230542</v>
+        <v>85.13708323054199</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.21585236784886</v>
+        <v>14.21585236784884</v>
       </c>
       <c r="C29" t="n">
         <v>0.9982595160862597</v>
       </c>
       <c r="D29" t="n">
-        <v>14.21585236784886</v>
+        <v>14.21585236784884</v>
       </c>
     </row>
     <row r="30">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26.51719328867785</v>
+        <v>26.51719328867789</v>
       </c>
       <c r="C30" t="n">
         <v>0.9995048326462794</v>
       </c>
       <c r="D30" t="n">
-        <v>26.51719328867785</v>
+        <v>26.51719328867789</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.192308087373131</v>
+        <v>-1.192308087373177</v>
       </c>
       <c r="C31" t="n">
         <v>0.9987375200335832</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.192308087373131</v>
+        <v>-1.192308087373177</v>
       </c>
     </row>
     <row r="32">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>18.29999907927048</v>
+        <v>18.29999907927047</v>
       </c>
       <c r="C32" t="n">
         <v>0.9989715258616022</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.00666308138216</v>
+        <v>73.0066630813821</v>
       </c>
       <c r="C34" t="n">
-        <v>0.996236620172248</v>
+        <v>0.9962366201722479</v>
       </c>
       <c r="D34" t="n">
-        <v>73.00666308138216</v>
+        <v>73.00666308138209</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.86485318540786</v>
+        <v>44.86485318540787</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9965771867717742</v>
+        <v>0.9965771867717741</v>
       </c>
       <c r="D35" t="n">
-        <v>44.86485318540785</v>
+        <v>44.86485318540787</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15.37745945734595</v>
+        <v>15.37745945734594</v>
       </c>
       <c r="C36" t="n">
         <v>0.9939781939671769</v>
       </c>
       <c r="D36" t="n">
-        <v>15.37745945734595</v>
+        <v>15.37745945734594</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>23.05136194558263</v>
+        <v>23.05136194558264</v>
       </c>
       <c r="C37" t="n">
         <v>0.9985611780269875</v>
       </c>
       <c r="D37" t="n">
-        <v>23.05136194558263</v>
+        <v>23.05136194558264</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>255.2651785314614</v>
+        <v>255.2651785314616</v>
       </c>
       <c r="C38" t="n">
         <v>0.9992978118725589</v>
       </c>
       <c r="D38" t="n">
-        <v>255.2651785314614</v>
+        <v>255.2651785314616</v>
       </c>
     </row>
     <row r="39">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>270.2817693062008</v>
+        <v>270.2817693062006</v>
       </c>
       <c r="C40" t="n">
         <v>0.9899534068046698</v>
       </c>
       <c r="D40" t="n">
-        <v>270.2817693062008</v>
+        <v>270.2817693062006</v>
       </c>
     </row>
     <row r="41">
@@ -1089,7 +1089,7 @@
         <v>285.7119593052547</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9928916690919702</v>
+        <v>0.9928916690919701</v>
       </c>
       <c r="D41" t="n">
         <v>285.7119593052547</v>
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9.049823222353853</v>
+        <v>9.049823222353854</v>
       </c>
       <c r="C43" t="n">
         <v>0.9948364009366442</v>
       </c>
       <c r="D43" t="n">
-        <v>9.049823222353853</v>
+        <v>9.049823222353854</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.28241808290787</v>
+        <v>31.2824180829079</v>
       </c>
       <c r="C44" t="n">
         <v>0.9981451223149976</v>
       </c>
       <c r="D44" t="n">
-        <v>31.28241808290787</v>
+        <v>31.2824180829079</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.822039987321949</v>
+        <v>6.822039987321946</v>
       </c>
       <c r="C45" t="n">
         <v>0.9921370424139587</v>
       </c>
       <c r="D45" t="n">
-        <v>6.822039987321949</v>
+        <v>6.822039987321946</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.7953129743431</v>
+        <v>31.79531297434313</v>
       </c>
       <c r="C46" t="n">
         <v>0.9286221703134236</v>
       </c>
       <c r="D46" t="n">
-        <v>31.7953129743431</v>
+        <v>31.79531297434313</v>
       </c>
     </row>
     <row r="47">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5.461495492821337</v>
+        <v>5.461495492821355</v>
       </c>
       <c r="C47" t="n">
         <v>0.9964503033914832</v>
       </c>
       <c r="D47" t="n">
-        <v>5.461495492821336</v>
+        <v>5.461495492821355</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10.12090861951008</v>
+        <v>10.12090861951006</v>
       </c>
       <c r="C48" t="n">
         <v>0.9966570088589713</v>
       </c>
       <c r="D48" t="n">
-        <v>10.12090861951008</v>
+        <v>10.12090861951006</v>
       </c>
     </row>
     <row r="49">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>79.73432195658252</v>
+        <v>79.73432195658259</v>
       </c>
       <c r="C50" t="n">
         <v>0.9976863146429417</v>
       </c>
       <c r="D50" t="n">
-        <v>79.73432195658251</v>
+        <v>79.73432195658259</v>
       </c>
     </row>
     <row r="51">
@@ -1284,7 +1284,7 @@
         <v>0.9991042513521537</v>
       </c>
       <c r="D53" t="n">
-        <v>10.91896822857721</v>
+        <v>10.91896822857722</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>14.73124927754197</v>
+        <v>14.73124927754199</v>
       </c>
       <c r="C54" t="n">
         <v>0.9930984860546905</v>
       </c>
       <c r="D54" t="n">
-        <v>14.73124927754197</v>
+        <v>14.73124927754199</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>33.92412995014488</v>
+        <v>33.92412995014489</v>
       </c>
       <c r="C55" t="n">
         <v>0.9969996724110827</v>
       </c>
       <c r="D55" t="n">
-        <v>33.92412995014488</v>
+        <v>33.92412995014489</v>
       </c>
     </row>
     <row r="56">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-3.554258550934537</v>
+        <v>-3.554258550934531</v>
       </c>
       <c r="C56" t="n">
         <v>0.9868905694412702</v>
       </c>
       <c r="D56" t="n">
-        <v>-3.554258550934537</v>
+        <v>-3.554258550934531</v>
       </c>
     </row>
     <row r="57">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>38.39009971810463</v>
+        <v>38.39009971810473</v>
       </c>
       <c r="C57" t="n">
         <v>0.9986679116997151</v>
       </c>
       <c r="D57" t="n">
-        <v>38.39009971810463</v>
+        <v>38.39009971810472</v>
       </c>
     </row>
     <row r="58">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>11.58565248519314</v>
+        <v>11.5856524851931</v>
       </c>
       <c r="C58" t="n">
         <v>0.997724915499709</v>
       </c>
       <c r="D58" t="n">
-        <v>11.58565248519314</v>
+        <v>11.5856524851931</v>
       </c>
     </row>
     <row r="59">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>183.3220820184928</v>
+        <v>183.3220820184926</v>
       </c>
       <c r="C59" t="n">
         <v>0.9973216823804065</v>
       </c>
       <c r="D59" t="n">
-        <v>183.3220820184928</v>
+        <v>183.3220820184927</v>
       </c>
     </row>
     <row r="60">
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>51.23425835748134</v>
+        <v>51.23425835748137</v>
       </c>
       <c r="C60" t="n">
         <v>0.9992203728608773</v>
       </c>
       <c r="D60" t="n">
-        <v>51.23425835748134</v>
+        <v>51.23425835748137</v>
       </c>
     </row>
     <row r="61">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>156.4552227687908</v>
+        <v>156.4552227687911</v>
       </c>
       <c r="C62" t="n">
         <v>0.9956038324477791</v>
       </c>
       <c r="D62" t="n">
-        <v>156.4552227687908</v>
+        <v>156.4552227687911</v>
       </c>
     </row>
     <row r="63">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>138.7758724131967</v>
+        <v>138.7758724131966</v>
       </c>
       <c r="C63" t="n">
         <v>0.9995009254830243</v>
       </c>
       <c r="D63" t="n">
-        <v>138.7758724131967</v>
+        <v>138.7758724131966</v>
       </c>
     </row>
     <row r="64">
@@ -1476,7 +1476,7 @@
         <v>0.9967189496847413</v>
       </c>
       <c r="D65" t="n">
-        <v>694.5281213852244</v>
+        <v>694.5281213852245</v>
       </c>
     </row>
     <row r="66">
@@ -1486,13 +1486,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1381.567244614123</v>
+        <v>1381.567244614126</v>
       </c>
       <c r="C66" t="n">
         <v>0.9992832359499509</v>
       </c>
       <c r="D66" t="n">
-        <v>1381.567244614123</v>
+        <v>1381.567244614126</v>
       </c>
     </row>
     <row r="67">
@@ -1502,29 +1502,29 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>491.7132710274763</v>
+        <v>491.7132710274759</v>
       </c>
       <c r="C67" t="n">
         <v>0.9993033774722898</v>
       </c>
       <c r="D67" t="n">
-        <v>491.7132710274763</v>
+        <v>491.7132710274759</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NEP-24-068</t>
+          <t>NEP-24-068**</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>232.5286101429919</v>
+        <v>232.5286101429922</v>
       </c>
       <c r="C68" t="n">
         <v>0.5142561457167796</v>
       </c>
       <c r="D68" t="n">
-        <v>232.5286101429919</v>
+        <v>232.5286101429922</v>
       </c>
     </row>
   </sheetData>
